--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -47,37 +47,37 @@
     <t>Cielo</t>
   </si>
   <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>Valecard Voucher</t>
+  </si>
+  <si>
+    <t>Valecard</t>
+  </si>
+  <si>
+    <t>013998257000126</t>
+  </si>
+  <si>
+    <t>VISA ELECTRON DEBITO A VISTA</t>
+  </si>
+  <si>
+    <t>1114141620</t>
+  </si>
+  <si>
+    <t>1038666373</t>
+  </si>
+  <si>
+    <t>VISA PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>2814703727</t>
+  </si>
+  <si>
+    <t>1038327641</t>
+  </si>
+  <si>
     <t>1109218637</t>
-  </si>
-  <si>
-    <t>VISA ELECTRON DEBITO A VISTA</t>
-  </si>
-  <si>
-    <t>1114141620</t>
-  </si>
-  <si>
-    <t>1038666373</t>
-  </si>
-  <si>
-    <t>VISA PARCELADO LOJA</t>
-  </si>
-  <si>
-    <t>2814703727</t>
-  </si>
-  <si>
-    <t>1038327641</t>
-  </si>
-  <si>
-    <t>9999999999</t>
-  </si>
-  <si>
-    <t>Valecard Voucher</t>
-  </si>
-  <si>
-    <t>Valecard</t>
-  </si>
-  <si>
-    <t>013998257000126</t>
   </si>
 </sst>
 </file>
@@ -219,86 +219,84 @@
       </c>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n">
-        <v>1.19</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>44585.125</v>
+        <v>43405</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>47142.125</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>44562</v>
+        <v>44712</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>45291</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.29</v>
+        <v>2.99</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>44562</v>
+        <v>44740</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>45291</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="3" t="s"/>
       <c r="E5" s="4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>45291</v>
@@ -312,16 +310,14 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n">
-        <v>2.44</v>
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>44562</v>
@@ -332,22 +328,22 @@
     </row>
     <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>44562</v>
@@ -358,22 +354,22 @@
     </row>
     <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>44562</v>
@@ -384,22 +380,22 @@
     </row>
     <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>3.56</v>
+        <v>2.44</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>44562</v>
@@ -410,59 +406,59 @@
     </row>
     <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="F10" s="4" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>45111</v>
+        <v>44562</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>45113</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>45120</v>
+        <v>44562</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>45120</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -474,13 +470,13 @@
         <v>16</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>0.8</v>
+        <v>3.56</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>45291</v>
@@ -494,20 +490,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="4" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" s="4" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>43405</v>
+        <v>45111</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45107</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -518,70 +516,72 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F14" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>44712</v>
+        <v>45120</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45107</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>2.99</v>
+        <v>0.8</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>44740</v>
+        <v>44927</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>45166</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s"/>
-      <c r="E16" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="n"/>
       <c r="F16" s="4" t="n">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>44927</v>
+        <v>44585.125</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>45291</v>
+        <v>47142.125</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -50,6 +50,27 @@
     <t>9999999999</t>
   </si>
   <si>
+    <t>VISA ELECTRON DEBITO A VISTA</t>
+  </si>
+  <si>
+    <t>1114141620</t>
+  </si>
+  <si>
+    <t>1038666373</t>
+  </si>
+  <si>
+    <t>1109218637</t>
+  </si>
+  <si>
+    <t>VISA PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>2814703727</t>
+  </si>
+  <si>
+    <t>1038327641</t>
+  </si>
+  <si>
     <t>Valecard Voucher</t>
   </si>
   <si>
@@ -57,27 +78,6 @@
   </si>
   <si>
     <t>013998257000126</t>
-  </si>
-  <si>
-    <t>VISA ELECTRON DEBITO A VISTA</t>
-  </si>
-  <si>
-    <t>1114141620</t>
-  </si>
-  <si>
-    <t>1038666373</t>
-  </si>
-  <si>
-    <t>VISA PARCELADO LOJA</t>
-  </si>
-  <si>
-    <t>2814703727</t>
-  </si>
-  <si>
-    <t>1038327641</t>
-  </si>
-  <si>
-    <t>1109218637</t>
   </si>
 </sst>
 </file>
@@ -230,26 +230,26 @@
     </row>
     <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>44712</v>
+        <v>44562</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>45107</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -280,44 +280,46 @@
     </row>
     <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s"/>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44927</v>
+        <v>44585.125</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>45291</v>
+        <v>47142.125</v>
       </c>
     </row>
     <row r="6" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" s="4" t="n">
-        <v>1</v>
+        <v>2.29</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>44562</v>
@@ -328,19 +330,19 @@
     </row>
     <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>2.29</v>
@@ -354,22 +356,22 @@
     </row>
     <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>44562</v>
@@ -380,19 +382,19 @@
     </row>
     <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>2.44</v>
@@ -406,19 +408,19 @@
     </row>
     <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>2.44</v>
@@ -432,22 +434,22 @@
     </row>
     <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3</v>
+        <v>3.56</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>44562</v>
@@ -458,25 +460,25 @@
     </row>
     <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>3.56</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>45291</v>
@@ -490,22 +492,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="n"/>
       <c r="F13" s="4" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>45111</v>
+        <v>44712</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45113</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -516,10 +516,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14" s="4" t="n">
         <v>1</v>
@@ -536,52 +536,52 @@
     </row>
     <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>44927</v>
+        <v>45111</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>45291</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="n"/>
+      <c r="D16" s="3" t="s"/>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" s="4" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>44585.125</v>
+        <v>44927</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>47142.125</v>
+        <v>45291</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -486,28 +486,26 @@
     </row>
     <row r="13" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s"/>
       <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>45111</v>
+        <v>44927</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45113</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -562,26 +560,28 @@
     </row>
     <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>44927</v>
+        <v>45111</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>45291</v>
+        <v>45113</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -169,7 +169,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col width="48.43" min="1" max="1" customWidth="1"/>
-    <col width="28" min="2" max="2" customWidth="1"/>
+    <col width="27.86" min="2" max="2" customWidth="1"/>
     <col width="35.57" min="3" max="3" customWidth="1"/>
     <col width="21.57" min="4" max="4" customWidth="1"/>
     <col width="24.86" min="5" max="5" customWidth="1"/>

--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -50,6 +50,27 @@
     <t>9999999999</t>
   </si>
   <si>
+    <t>VISA ELECTRON DEBITO A VISTA</t>
+  </si>
+  <si>
+    <t>1114141620</t>
+  </si>
+  <si>
+    <t>1038666373</t>
+  </si>
+  <si>
+    <t>1109218637</t>
+  </si>
+  <si>
+    <t>VISA PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>2814703727</t>
+  </si>
+  <si>
+    <t>1038327641</t>
+  </si>
+  <si>
     <t>Valecard Voucher</t>
   </si>
   <si>
@@ -57,27 +78,6 @@
   </si>
   <si>
     <t>013998257000126</t>
-  </si>
-  <si>
-    <t>VISA ELECTRON DEBITO A VISTA</t>
-  </si>
-  <si>
-    <t>1114141620</t>
-  </si>
-  <si>
-    <t>1038666373</t>
-  </si>
-  <si>
-    <t>VISA PARCELADO LOJA</t>
-  </si>
-  <si>
-    <t>2814703727</t>
-  </si>
-  <si>
-    <t>1038327641</t>
-  </si>
-  <si>
-    <t>1109218637</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
     <col width="48.43" min="1" max="1" customWidth="1"/>
-    <col width="28" min="2" max="2" customWidth="1"/>
+    <col width="27.86" min="2" max="2" customWidth="1"/>
     <col width="35.57" min="3" max="3" customWidth="1"/>
     <col width="21.57" min="4" max="4" customWidth="1"/>
     <col width="24.86" min="5" max="5" customWidth="1"/>
@@ -230,26 +230,26 @@
     </row>
     <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5" t="n">
-        <v>44712</v>
+        <v>44562</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>45107</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -280,44 +280,46 @@
     </row>
     <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s"/>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n">
-        <v>2.4</v>
+        <v>1.19</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44927</v>
+        <v>44585.125</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>45291</v>
+        <v>47142.125</v>
       </c>
     </row>
     <row r="6" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="F6" s="4" t="n">
-        <v>1</v>
+        <v>2.29</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>44562</v>
@@ -328,19 +330,19 @@
     </row>
     <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>2.29</v>
@@ -354,22 +356,22 @@
     </row>
     <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>44562</v>
@@ -380,19 +382,19 @@
     </row>
     <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>2.44</v>
@@ -406,19 +408,19 @@
     </row>
     <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>2.44</v>
@@ -432,22 +434,22 @@
     </row>
     <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3</v>
+        <v>3.56</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>44562</v>
@@ -458,28 +460,28 @@
     </row>
     <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>3.56</v>
+        <v>2</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>44562</v>
+        <v>45111</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>45291</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="13" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -490,22 +492,22 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>45111</v>
+        <v>45120</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45113</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -516,36 +518,34 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="n"/>
       <c r="F14" s="4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>45120</v>
+        <v>44712</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>45120</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
@@ -562,26 +562,26 @@
     </row>
     <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="n"/>
+      <c r="D16" s="3" t="s"/>
+      <c r="E16" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" s="4" t="n">
-        <v>1.19</v>
+        <v>2.4</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>44585.125</v>
+        <v>44927</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>47142.125</v>
+        <v>45291</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -47,28 +47,28 @@
     <t>Cielo</t>
   </si>
   <si>
+    <t>1109218637</t>
+  </si>
+  <si>
+    <t>VISA ELECTRON DEBITO A VISTA</t>
+  </si>
+  <si>
+    <t>1114141620</t>
+  </si>
+  <si>
+    <t>1038666373</t>
+  </si>
+  <si>
+    <t>VISA PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>2814703727</t>
+  </si>
+  <si>
+    <t>1038327641</t>
+  </si>
+  <si>
     <t>9999999999</t>
-  </si>
-  <si>
-    <t>VISA ELECTRON DEBITO A VISTA</t>
-  </si>
-  <si>
-    <t>1114141620</t>
-  </si>
-  <si>
-    <t>1038666373</t>
-  </si>
-  <si>
-    <t>1109218637</t>
-  </si>
-  <si>
-    <t>VISA PARCELADO LOJA</t>
-  </si>
-  <si>
-    <t>2814703727</t>
-  </si>
-  <si>
-    <t>1038327641</t>
   </si>
   <si>
     <t>Valecard Voucher</t>
@@ -219,13 +219,13 @@
       </c>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n">
-        <v>2.5</v>
+        <v>1.19</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>43405</v>
+        <v>44585.125</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>45107</v>
+        <v>47142.125</v>
       </c>
     </row>
     <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -254,57 +254,59 @@
     </row>
     <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.99</v>
+        <v>2.29</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>44740</v>
+        <v>44562</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>45166</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>6</v>
+      </c>
       <c r="F5" s="4" t="n">
-        <v>1.19</v>
+        <v>2.29</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>44585.125</v>
+        <v>44562</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>47142.125</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="6" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
@@ -316,10 +318,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>44562</v>
@@ -330,7 +332,7 @@
     </row>
     <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -342,10 +344,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>44562</v>
@@ -356,7 +358,7 @@
     </row>
     <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
@@ -382,7 +384,7 @@
     </row>
     <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
@@ -394,10 +396,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2.44</v>
+        <v>3.56</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>44562</v>
@@ -408,7 +410,7 @@
     </row>
     <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -420,21 +422,21 @@
         <v>13</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>44562</v>
+        <v>45111</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>45291</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
@@ -446,42 +448,42 @@
         <v>13</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3.56</v>
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>44562</v>
+        <v>45120</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>45291</v>
+        <v>45120</v>
       </c>
     </row>
     <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>45111</v>
+        <v>44927</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>45113</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -492,22 +494,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E13" s="4" t="n"/>
       <c r="F13" s="4" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>45120</v>
+        <v>43405</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>45120</v>
+        <v>45107</v>
       </c>
     </row>
     <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -518,10 +518,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="n"/>
       <c r="F14" s="4" t="n">
@@ -536,28 +536,28 @@
     </row>
     <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>0.8</v>
+        <v>2.99</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>44927</v>
+        <v>44740</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>45291</v>
+        <v>45166</v>
       </c>
     </row>
     <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">

--- a/cypress/downloads/Taxas.xlsx
+++ b/cypress/downloads/Taxas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Tipo Produto</t>
   </si>
@@ -39,6 +39,45 @@
   </si>
   <si>
     <t>Data Término</t>
+  </si>
+  <si>
+    <t>VISA CREDITO A VISTA</t>
+  </si>
+  <si>
+    <t>Cielo</t>
+  </si>
+  <si>
+    <t>9999999999</t>
+  </si>
+  <si>
+    <t>Valecard Voucher</t>
+  </si>
+  <si>
+    <t>Valecard</t>
+  </si>
+  <si>
+    <t>013998257000126</t>
+  </si>
+  <si>
+    <t>VISA ELECTRON DEBITO A VISTA</t>
+  </si>
+  <si>
+    <t>1114141620</t>
+  </si>
+  <si>
+    <t>1038666373</t>
+  </si>
+  <si>
+    <t>VISA PARCELADO LOJA</t>
+  </si>
+  <si>
+    <t>2814703727</t>
+  </si>
+  <si>
+    <t>1038327641</t>
+  </si>
+  <si>
+    <t>1109218637</t>
   </si>
 </sst>
 </file>
@@ -129,14 +168,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="33.43" min="1" max="1" customWidth="1"/>
-    <col width="30.86" min="2" max="2" customWidth="1"/>
-    <col width="39.29" min="3" max="3" customWidth="1"/>
-    <col width="23.43" min="4" max="4" customWidth="1"/>
-    <col width="27.43" min="5" max="5" customWidth="1"/>
-    <col width="21.86" min="6" max="6" customWidth="1"/>
-    <col width="30" min="7" max="7" customWidth="1"/>
-    <col width="34.43" min="8" max="8" customWidth="1"/>
+    <col width="48.43" min="1" max="1" customWidth="1"/>
+    <col width="27.86" min="2" max="2" customWidth="1"/>
+    <col width="35.57" min="3" max="3" customWidth="1"/>
+    <col width="21.57" min="4" max="4" customWidth="1"/>
+    <col width="24.86" min="5" max="5" customWidth="1"/>
+    <col width="19.86" min="6" max="6" customWidth="1"/>
+    <col width="27.14" min="7" max="7" customWidth="1"/>
+    <col width="31.14" min="8" max="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
@@ -165,9 +204,389 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>43405</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>44712</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>44740</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s"/>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>44927</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>44562</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>45111</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>45120</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>44927</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" outlineLevel="0" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>44585.125</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>47142.125</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError sqref="A1:H2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>